--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1783,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1830,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1876,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1932,10 +1956,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="J62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1979,28 +2003,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="3">
+      <c r="C64" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2025,28 +2049,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2105,10 +2129,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2152,28 +2176,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2198,28 +2222,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2278,10 +2302,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="3" t="s">
+      <c r="J74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2325,28 +2349,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="A76" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="3">
+      <c r="C76" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2371,28 +2395,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="3">
+      <c r="I78" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2451,10 +2475,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2498,28 +2522,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="3">
+      <c r="C82" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2544,28 +2568,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2624,10 +2648,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="J86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2671,28 +2695,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="3">
+      <c r="C88" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2717,28 +2741,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2797,10 +2821,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2844,28 +2868,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2890,28 +2914,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2970,10 +2994,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3017,28 +3041,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="3">
+      <c r="C100" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3063,28 +3087,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3143,10 +3167,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3190,28 +3214,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3236,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3316,10 +3340,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3363,28 +3387,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3409,28 +3433,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3489,10 +3513,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3536,28 +3560,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3582,28 +3606,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3662,10 +3686,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3709,28 +3733,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3755,28 +3779,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3835,10 +3859,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3882,28 +3906,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3928,28 +3952,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4008,10 +4032,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4055,28 +4079,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4101,28 +4125,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4181,10 +4205,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4228,28 +4252,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4274,28 +4298,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4354,10 +4378,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4401,28 +4425,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4447,28 +4471,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4551,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4598,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4644,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4700,10 +4724,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4747,28 +4771,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4793,28 +4817,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5569,10 +5593,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="3" t="s">
+      <c r="J188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5616,28 +5640,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="3">
+      <c r="A190" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="3">
+      <c r="C190" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5662,28 +5686,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="3">
+      <c r="C192" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="3">
+      <c r="D192" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="3">
+      <c r="I192" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5742,10 +5766,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="3" t="s">
+      <c r="J194" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5789,28 +5813,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="3">
+      <c r="A196" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="3">
+      <c r="C196" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5835,28 +5859,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="3">
+      <c r="C198" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="3">
+      <c r="D198" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="3">
+      <c r="I198" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5915,10 +5939,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5962,28 +5986,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6008,28 +6032,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6088,10 +6112,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="3" t="s">
+      <c r="J206" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6135,28 +6159,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="3">
+      <c r="A208" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="3">
+      <c r="C208" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6181,28 +6205,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="3">
+      <c r="C210" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="3">
+      <c r="D210" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="3">
+      <c r="I210" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6261,10 +6285,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6308,28 +6332,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6354,28 +6378,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6434,10 +6458,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6481,28 +6505,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6527,28 +6551,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6607,10 +6631,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="3" t="s">
+      <c r="J224" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6654,28 +6678,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="3">
+      <c r="A226" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="3">
+      <c r="C226" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6700,28 +6724,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="3">
+      <c r="C228" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="3">
+      <c r="D228" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="3">
+      <c r="I228" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6780,10 +6804,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="3" t="s">
+      <c r="J230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6827,28 +6851,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="3">
+      <c r="A232" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="3">
+      <c r="C232" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6873,28 +6897,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="3">
+      <c r="C234" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="3">
+      <c r="D234" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="3">
+      <c r="I234" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6953,10 +6977,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="3" t="s">
+      <c r="J236" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
